--- a/biology/Médecine/1703_en_santé_et_médecine/1703_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1703_en_santé_et_médecine/1703_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1703_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1703_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1703 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1703_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1703_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7 décembre : une tempête fait huit mille morts dans le Sud de l'Angleterre[1].
-1702-1703 : au Québec, une épidémie de variole fait entre deux et trois mille morts, dont trois à quatre cents dans la ville de Québec[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 décembre : une tempête fait huit mille morts dans le Sud de l'Angleterre.
+1702-1703 : au Québec, une épidémie de variole fait entre deux et trois mille morts, dont trois à quatre cents dans la ville de Québec.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1703_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1703_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>8 janvier : André Levret (mort en 1780), médecin obstétricien.
 15 janvier : Johann Ernst Hebenstreit (mort en 1757), médecin et naturaliste allemand.
 21 juin : Joseph Lieutaud (mort en 1780), médecin provençal.
-28 juin : John Wesley (mort en 1791), prêtre, voyageur, essayiste et diariste britannique, auteur d'un ouvrage très populaire sur le moyen « facile et naturel de soigner la plupart des maladies[3],[4] ».
+28 juin : John Wesley (mort en 1791), prêtre, voyageur, essayiste et diariste britannique, auteur d'un ouvrage très populaire sur le moyen « facile et naturel de soigner la plupart des maladies, ».
 23 août : Robert James (mort en 1776), médecin anglais.
-1er septembre : William Battie (mort en 1776), médecin aliéniste anglais[5].
+1er septembre : William Battie (mort en 1776), médecin aliéniste anglais.
 15 septembre : Guillaume-François Rouelle (mort en 1770), apothicaire et chimiste français.
 3 octobre : Franz Christoph Janneck (mort en 1761), peintre autrichien de la période baroque qui a peint L'Alchimiste médical.
 John Taylor (mort en 1772), ophtalmologue anglais.</t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1703_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1703_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>25 mai : Charles-François Félix, ou Charles-François Félix de Tassy (né vers 1635), chirurgien.
 26 mai : Samuel Pepys (né en 1633), haut fonctionnaire de l'Amirauté anglaise, diariste de la grande peste de Londres (1665-1666).
